--- a/External Beam Templates/Structure Templates/Template Spreadsheets/CNS Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/CNS Templates.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dkphysicspv1\e$\Gregs_Work\Eclipse\Template Management\External Beam Templates\Structure Templates\Template Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12165"/>
   </bookViews>
   <sheets>
-    <sheet name="Brain Anatomy" sheetId="1" r:id="rId1"/>
-    <sheet name="CNS" sheetId="2" r:id="rId2"/>
-    <sheet name="FSRT" sheetId="3" r:id="rId3"/>
-    <sheet name="Palliative Brain" sheetId="4" r:id="rId4"/>
+    <sheet name="CNS" sheetId="2" r:id="rId1"/>
+    <sheet name="FSRT" sheetId="3" r:id="rId2"/>
+    <sheet name="Palliative Brain" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="191">
-  <si>
-    <t>Temporal Lobes</t>
-  </si>
-  <si>
-    <t>Pituitary</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="179">
   <si>
     <t>Globe Right</t>
   </si>
@@ -94,9 +92,6 @@
     <t>Lens L</t>
   </si>
   <si>
-    <t>Organs of the brain</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -112,9 +107,6 @@
     <t>BrainStem</t>
   </si>
   <si>
-    <t>Brain Anatomy</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -529,24 +521,6 @@
     <t>Palliative Brain</t>
   </si>
   <si>
-    <t>Lacrimal L</t>
-  </si>
-  <si>
-    <t>Lacrimal R</t>
-  </si>
-  <si>
-    <t>Lacrimal Glands Left</t>
-  </si>
-  <si>
-    <t>Lacrimal Glands Right</t>
-  </si>
-  <si>
-    <t>Lacrimal B</t>
-  </si>
-  <si>
-    <t>Lacrimal Glands</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
@@ -557,12 +531,6 @@
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>OAR</t>
-  </si>
-  <si>
-    <t>Brain_Anatomy.xml</t>
   </si>
   <si>
     <t>Columns</t>
@@ -908,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -939,7 +907,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1032,18 +999,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1017,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -1581,225 +1541,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1828,6 +1569,7 @@
       <sheetName val="ICD-10 Codes"/>
       <sheetName val="Color Chart"/>
       <sheetName val="Original Structure colors"/>
+      <sheetName val="ColourTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1841,13 +1583,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table357911151719" displayName="Table357911151719" ref="A2:B13" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3569" displayName="Table3569" ref="A2:B13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -1857,27 +1600,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table581012161820" displayName="Table581012161820" ref="D2:F16" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="37"/>
-    <tableColumn id="2" name="ID" dataDxfId="36"/>
-    <tableColumn id="3" name="Name" dataDxfId="35"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3569" displayName="Table3569" ref="A2:B13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Attribute"/>
-    <tableColumn id="2" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table570" displayName="Table570" ref="D2:H37" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <sortState ref="D3:H37">
     <sortCondition ref="D3:D37"/>
@@ -1898,7 +1620,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356940" displayName="Table356940" ref="A2:B13" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
@@ -1908,7 +1630,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table57041" displayName="Table57041" ref="D2:H42" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <sortState ref="D3:H61">
     <sortCondition ref="E3:E61"/>
@@ -1928,7 +1650,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table35697146" displayName="Table35697146" ref="A2:B13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
@@ -1938,7 +1660,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table5707278" displayName="Table5707278" ref="D2:F20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <sortState ref="D3:H61">
     <sortCondition ref="E3:E61"/>
@@ -1995,7 +1717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2030,7 +1752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2239,1039 +1961,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="H1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="53"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="21" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Brainstem</v>
-      </c>
-      <c r="I3" s="20">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>79876</v>
-      </c>
-      <c r="J3" s="20" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K3" s="19" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L3" s="18" t="str">
-        <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M3" s="17" t="str">
-        <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N3" s="16" t="str">
-        <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Brain Stem</v>
-      </c>
-      <c r="O3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P3" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="21" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Brain</v>
-      </c>
-      <c r="I4" s="20">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>50801</v>
-      </c>
-      <c r="J4" s="20" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L4" s="18" t="str">
-        <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M4" s="17" t="str">
-        <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N4" s="16" t="str">
-        <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Brain</v>
-      </c>
-      <c r="O4" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="14">
-        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>10</v>
-      </c>
-      <c r="S4" s="13">
-        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left lens</v>
-      </c>
-      <c r="I5" s="20">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>58243</v>
-      </c>
-      <c r="J5" s="20" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K5" s="19" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L5" s="18" t="str">
-        <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M5" s="17" t="str">
-        <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N5" s="16" t="str">
-        <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lens L</v>
-      </c>
-      <c r="O5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P5" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="21" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right lens</v>
-      </c>
-      <c r="I6" s="20">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>58242</v>
-      </c>
-      <c r="J6" s="20" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K6" s="19" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L6" s="18" t="str">
-        <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M6" s="17" t="str">
-        <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N6" s="16" t="str">
-        <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lens R</v>
-      </c>
-      <c r="O6" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P6" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S6" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="21" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Optic chiasm</v>
-      </c>
-      <c r="I7" s="20">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>62045</v>
-      </c>
-      <c r="J7" s="20" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K7" s="19" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L7" s="18" t="str">
-        <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M7" s="17" t="str">
-        <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N7" s="16" t="str">
-        <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Optic Chiasm</v>
-      </c>
-      <c r="O7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="21" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left optic nerve</v>
-      </c>
-      <c r="I8" s="20">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>50878</v>
-      </c>
-      <c r="J8" s="20" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K8" s="19" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L8" s="18" t="str">
-        <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M8" s="17" t="str">
-        <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N8" s="16" t="str">
-        <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Optic Nerve L</v>
-      </c>
-      <c r="O8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P8" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right optic nerve</v>
-      </c>
-      <c r="I9" s="20">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>50875</v>
-      </c>
-      <c r="J9" s="20" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K9" s="19" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L9" s="18" t="str">
-        <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M9" s="17" t="str">
-        <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N9" s="16" t="str">
-        <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Optic Nerve R</v>
-      </c>
-      <c r="O9" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="21" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left eyeball</v>
-      </c>
-      <c r="I10" s="20">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>12515</v>
-      </c>
-      <c r="J10" s="20" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K10" s="19" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L10" s="18" t="str">
-        <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M10" s="17" t="str">
-        <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N10" s="16" t="str">
-        <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Orbit L</v>
-      </c>
-      <c r="O10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="21" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right eyeball</v>
-      </c>
-      <c r="I11" s="20">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>12514</v>
-      </c>
-      <c r="J11" s="20" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K11" s="19" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L11" s="18" t="str">
-        <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M11" s="17" t="str">
-        <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N11" s="16" t="str">
-        <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Orbit R</v>
-      </c>
-      <c r="O11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Pituitary gland</v>
-      </c>
-      <c r="I12" s="20">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>13889</v>
-      </c>
-      <c r="J12" s="20" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K12" s="19" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L12" s="18" t="str">
-        <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M12" s="17" t="str">
-        <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N12" s="16" t="str">
-        <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Pituitary</v>
-      </c>
-      <c r="O12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P12" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Temporal lobe</v>
-      </c>
-      <c r="I13" s="20">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>61825</v>
-      </c>
-      <c r="J13" s="20" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K13" s="19" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L13" s="18" t="str">
-        <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M13" s="17" t="str">
-        <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N13" s="16" t="str">
-        <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
-        <v>zTemporal lobes</v>
-      </c>
-      <c r="O13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="21" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Lacrimal gland</v>
-      </c>
-      <c r="I14" s="20">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59101</v>
-      </c>
-      <c r="J14" s="20" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K14" s="19" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L14" s="18" t="str">
-        <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M14" s="17" t="str">
-        <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N14" s="16" t="str">
-        <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid B</v>
-      </c>
-      <c r="O14" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P14" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R14" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="21" t="str">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left lacrimal gland</v>
-      </c>
-      <c r="I15" s="20">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59103</v>
-      </c>
-      <c r="J15" s="20" t="str">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K15" s="19" t="str">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L15" s="18" t="str">
-        <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M15" s="17" t="str">
-        <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N15" s="16" t="str">
-        <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid L</v>
-      </c>
-      <c r="O15" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P15" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R15" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S15" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="10" t="str">
-        <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right lacrimal gland</v>
-      </c>
-      <c r="I16" s="9" t="str">
-        <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59102</v>
-      </c>
-      <c r="J16" s="9" t="str">
-        <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K16" s="8" t="str">
-        <f>VLOOKUP(D16,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L16" s="7" t="str">
-        <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M16" s="6" t="str">
-        <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N16" s="5" t="str">
-        <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid R</v>
-      </c>
-      <c r="O16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3308,2460 +1997,2460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="J1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="52" t="s">
+      <c r="A1" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="52" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="53"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="51"/>
+      <c r="P1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="37" t="s">
+      <c r="A2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>32</v>
+      <c r="S2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>186</v>
+      <c r="A3" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="41" t="str">
+        <v>112</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="40" t="str">
         <f>IF(EXACT(D3,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H3" s="23" t="str">
+      <c r="H3" s="22" t="str">
         <f t="shared" ref="H3:H37" si="0">IF(EXACT(D3,"DPV"),"ICD-10","")</f>
         <v/>
       </c>
-      <c r="J3" s="21" t="str">
+      <c r="J3" s="20" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Body</v>
       </c>
-      <c r="K3" s="20" t="str">
+      <c r="K3" s="19" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
         <v>BODY</v>
       </c>
-      <c r="L3" s="20" t="str">
+      <c r="L3" s="19" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M3" s="19" t="str">
+      <c r="M3" s="18" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N3" s="18" t="str">
+      <c r="N3" s="17" t="str">
         <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Special</v>
       </c>
-      <c r="O3" s="17" t="str">
+      <c r="O3" s="16" t="str">
         <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
         <v>BODY</v>
       </c>
-      <c r="P3" s="16" t="str">
+      <c r="P3" s="15" t="str">
         <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
         <v>z Body</v>
       </c>
-      <c r="Q3" s="14" t="str">
+      <c r="Q3" s="13" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R3" s="15" t="str">
+      <c r="R3" s="14" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S3" s="13" t="str">
+      <c r="S3" s="12" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>-350</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="12">
         <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>-50</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>188</v>
+      <c r="A4" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="41" t="str">
+        <v>24</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="40" t="str">
         <f>IF(EXACT(D4,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H4" s="23" t="str">
+      <c r="H4" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="21" t="str">
+      <c r="J4" s="20" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brain</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
         <v>50801</v>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L4" s="19" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M4" s="19" t="str">
+      <c r="M4" s="18" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N4" s="18" t="str">
+      <c r="N4" s="17" t="str">
         <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O4" s="17" t="str">
+      <c r="O4" s="16" t="str">
         <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P4" s="16" t="str">
+      <c r="P4" s="15" t="str">
         <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain</v>
       </c>
-      <c r="Q4" s="14" t="str">
+      <c r="Q4" s="13" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R4" s="15" t="str">
+      <c r="R4" s="14" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S4" s="13" t="str">
+      <c r="S4" s="12" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="13">
         <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>10</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>25</v>
+      <c r="A5" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="45" t="str">
+        <v>110</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="44" t="str">
         <f>IF(EXACT(D5,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H5" s="24" t="str">
+      <c r="H5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="21" t="str">
+      <c r="J5" s="20" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brain sub PTVs</v>
       </c>
-      <c r="K5" s="20" t="str">
+      <c r="K5" s="19" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
         <v>brain-ptvs</v>
       </c>
-      <c r="L5" s="20" t="str">
+      <c r="L5" s="19" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="18" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N5" s="18" t="str">
+      <c r="N5" s="17" t="str">
         <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O5" s="17" t="str">
+      <c r="O5" s="16" t="str">
         <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P5" s="16" t="str">
+      <c r="P5" s="15" t="str">
         <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain opt</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="T5" s="14" t="str">
+      <c r="T5" s="13" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U5" s="13" t="str">
+      <c r="U5" s="12" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>181</v>
+      <c r="A6" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="41" t="str">
+      <c r="C6" s="26"/>
+      <c r="D6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="40" t="str">
         <f>IF(EXACT(D6,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H6" s="23" t="str">
+      <c r="H6" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="20" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brainstem</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
         <v>79876</v>
       </c>
-      <c r="L6" s="20" t="str">
+      <c r="L6" s="19" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="18" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N6" s="18" t="str">
+      <c r="N6" s="17" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="O6" s="16" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P6" s="16" t="str">
+      <c r="P6" s="15" t="str">
         <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain Stem</v>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="13" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R6" s="15" t="str">
+      <c r="R6" s="14" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="12" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="13" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="12" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>112</v>
+      <c r="A7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="45" t="str">
+        <v>107</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="44" t="str">
         <f>IF(EXACT(D7,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
+      <c r="J7" s="20" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brainstem</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
         <v>79876</v>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" s="19" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M7" s="19" t="str">
+      <c r="M7" s="18" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N7" s="18" t="str">
+      <c r="N7" s="17" t="str">
         <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="16" t="str">
         <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P7" s="16" t="str">
+      <c r="P7" s="15" t="str">
         <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain Stem opt</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="T7" s="14" t="str">
+      <c r="T7" s="13" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U7" s="13" t="str">
+      <c r="U7" s="12" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>18</v>
+      <c r="A8" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="41" t="str">
+        <v>15</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="40" t="str">
         <f>IF(EXACT(D8,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="20" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" s="19" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M8" s="19" t="str">
+      <c r="M8" s="18" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N8" s="18" t="str">
+      <c r="N8" s="17" t="str">
         <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="16" t="str">
         <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="15" t="str">
         <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
         <v>z BR STM PRV</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="13" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R8" s="15" t="str">
+      <c r="R8" s="14" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S8" s="13" t="str">
+      <c r="S8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T8" s="14" t="str">
+      <c r="T8" s="13" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U8" s="13" t="str">
+      <c r="U8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>187</v>
+      <c r="A9" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="41" t="str">
+        <v>171</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="40" t="str">
         <f>IF(EXACT(D9,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H9" s="23" t="str">
+      <c r="H9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left cochlea</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
         <v>60203</v>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" s="19" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="18" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N9" s="18" t="str">
+      <c r="N9" s="17" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="16" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="15" t="str">
         <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
         <v>z Cochlea L</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="13" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R9" s="15" t="str">
+      <c r="R9" s="14" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="S9" s="12" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T9" s="14" t="str">
+      <c r="T9" s="13" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U9" s="13" t="str">
+      <c r="U9" s="12" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>176</v>
+      <c r="A10" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="41" t="str">
+        <v>167</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="40" t="str">
         <f>IF(EXACT(D10,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H10" s="23" t="str">
+      <c r="H10" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="J10" s="20" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right cochlea</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
         <v>60202</v>
       </c>
-      <c r="L10" s="20" t="str">
+      <c r="L10" s="19" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M10" s="19" t="str">
+      <c r="M10" s="18" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N10" s="18" t="str">
+      <c r="N10" s="17" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="16" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="15" t="str">
         <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
         <v>z Cochlea R</v>
       </c>
-      <c r="Q10" s="14" t="str">
+      <c r="Q10" s="13" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R10" s="15" t="str">
+      <c r="R10" s="14" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="12" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T10" s="13" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="12" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>189</v>
+      <c r="A11" s="48" t="s">
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>102</v>
+        <v>170</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="45" t="str">
+        <v>97</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="44" t="str">
         <f>IF(EXACT(D11,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="20" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Contrast</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11582</v>
       </c>
-      <c r="L11" s="20" t="str">
+      <c r="L11" s="19" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N11" s="18" t="str">
+      <c r="N11" s="17" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="16" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="15" t="str">
         <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
         <v>z Contrast</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="13" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R11" s="15" t="str">
+      <c r="R11" s="14" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S11" s="13" t="str">
+      <c r="S11" s="12" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T11" s="14" t="str">
+      <c r="T11" s="13" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U11" s="13" t="str">
+      <c r="U11" s="12" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>178</v>
+      <c r="A12" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="41" t="str">
+        <v>12</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="40" t="str">
         <f>IF(EXACT(D12,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H12" s="23" t="str">
+      <c r="H12" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="20" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
         <v>CTV Primary</v>
       </c>
-      <c r="K12" s="20" t="str">
+      <c r="K12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
         <v>CTVp</v>
       </c>
-      <c r="L12" s="20" t="str">
+      <c r="L12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M12" s="19" t="str">
+      <c r="M12" s="18" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N12" s="18" t="str">
+      <c r="N12" s="17" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="16" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="15" t="str">
         <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
         <v>z CTV</v>
       </c>
-      <c r="Q12" s="14" t="str">
+      <c r="Q12" s="13" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R12" s="15" t="str">
+      <c r="R12" s="14" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="S12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T12" s="14" t="str">
+      <c r="T12" s="13" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U12" s="13" t="str">
+      <c r="U12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>10</v>
+      <c r="A13" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>97</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="45" t="str">
+        <v>92</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="44" t="str">
         <f>IF(EXACT(D13,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="20" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
         <v>CTV Intermediate Risk</v>
       </c>
-      <c r="K13" s="20" t="str">
+      <c r="K13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
         <v>CTV_Intermediate</v>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="18" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N13" s="18" t="str">
+      <c r="N13" s="17" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="16" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="P13" s="16" t="str">
+      <c r="P13" s="15" t="str">
         <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
         <v>z CTV int</v>
       </c>
-      <c r="Q13" s="14" t="str">
+      <c r="Q13" s="13" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R13" s="15" t="str">
+      <c r="R13" s="14" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S13" s="13" t="str">
+      <c r="S13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T13" s="14" t="str">
+      <c r="T13" s="13" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U13" s="13" t="str">
+      <c r="U13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="23" t="str">
+      <c r="D14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>ICD-10</v>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="20" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="K14" s="20" t="str">
+      <c r="K14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="L14" s="20" t="str">
+      <c r="L14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N14" s="18" t="str">
+      <c r="N14" s="17" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Special</v>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="16" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="15" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
         <v>z DPV</v>
       </c>
-      <c r="Q14" s="14" t="str">
+      <c r="Q14" s="13" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R14" s="15" t="str">
+      <c r="R14" s="14" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="13" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U14" s="13" t="str">
+      <c r="U14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="41" t="str">
+      <c r="D15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="40" t="str">
         <f>IF(EXACT(D15,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H15" s="23" t="str">
+      <c r="H15" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="20" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K15" s="20" t="str">
+      <c r="K15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M15" s="19" t="str">
+      <c r="M15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N15" s="18" t="str">
+      <c r="N15" s="17" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="16" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="15" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q15" s="14" t="str">
+      <c r="Q15" s="13" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R15" s="15" t="str">
+      <c r="R15" s="14" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S15" s="13" t="str">
+      <c r="S15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T15" s="14" t="str">
+      <c r="T15" s="13" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U15" s="13" t="str">
+      <c r="U15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="29" t="s">
-        <v>89</v>
+      <c r="D16" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="45" t="str">
+        <v>84</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="44" t="str">
         <f>IF(EXACT(D16,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="20" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Metabalic Tumor Volume</v>
       </c>
-      <c r="K16" s="20" t="str">
+      <c r="K16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
         <v>MTV</v>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M16" s="19" t="str">
+      <c r="M16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N16" s="18" t="str">
+      <c r="N16" s="17" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="16" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P16" s="16" t="str">
+      <c r="P16" s="15" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV MRI</v>
       </c>
-      <c r="Q16" s="14" t="str">
+      <c r="Q16" s="13" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R16" s="15" t="str">
+      <c r="R16" s="14" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T16" s="14" t="str">
+      <c r="T16" s="13" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U16" s="13" t="str">
+      <c r="U16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="29" t="s">
-        <v>86</v>
+      <c r="D17" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="45" t="str">
+        <v>81</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="44" t="str">
         <f>IF(EXACT(D17,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="20" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K17" s="20" t="str">
+      <c r="K17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N17" s="18" t="str">
+      <c r="N17" s="17" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="16" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P17" s="16" t="str">
+      <c r="P17" s="15" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
         <v>z HTV</v>
       </c>
-      <c r="Q17" s="14" t="str">
+      <c r="Q17" s="13" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R17" s="15" t="str">
+      <c r="R17" s="14" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S17" s="13" t="str">
+      <c r="S17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T17" s="14" t="str">
+      <c r="T17" s="13" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U17" s="13" t="str">
+      <c r="U17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="41" t="str">
+      <c r="D18" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="40" t="str">
         <f>IF(EXACT(D18,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H18" s="23" t="str">
+      <c r="H18" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="20" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left lens</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
         <v>58243</v>
       </c>
-      <c r="L18" s="20" t="str">
+      <c r="L18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N18" s="18" t="str">
+      <c r="N18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P18" s="16" t="str">
+      <c r="P18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
         <v>z Lens L</v>
       </c>
-      <c r="Q18" s="14" t="str">
+      <c r="Q18" s="13" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R18" s="15" t="str">
+      <c r="R18" s="14" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S18" s="13" t="str">
+      <c r="S18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T18" s="14" t="str">
+      <c r="T18" s="13" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U18" s="13" t="str">
+      <c r="U18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="41" t="str">
+      <c r="D19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="40" t="str">
         <f>IF(EXACT(D19,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H19" s="23" t="str">
+      <c r="H19" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="20" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right lens</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
         <v>58242</v>
       </c>
-      <c r="L19" s="20" t="str">
+      <c r="L19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M19" s="19" t="str">
+      <c r="M19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N19" s="18" t="str">
+      <c r="N19" s="17" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P19" s="16" t="str">
+      <c r="P19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
         <v>z Lens R</v>
       </c>
-      <c r="Q19" s="14" t="str">
+      <c r="Q19" s="13" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R19" s="15" t="str">
+      <c r="R19" s="14" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S19" s="13" t="str">
+      <c r="S19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T19" s="14" t="str">
+      <c r="T19" s="13" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U19" s="13" t="str">
+      <c r="U19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="41" t="str">
+      <c r="D20" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="40" t="str">
         <f>IF(EXACT(D20,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H20" s="23" t="str">
+      <c r="H20" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="20" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Optic chiasm</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
         <v>62045</v>
       </c>
-      <c r="L20" s="20" t="str">
+      <c r="L20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M20" s="19" t="str">
+      <c r="M20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N20" s="18" t="str">
+      <c r="N20" s="17" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Chiasm</v>
       </c>
-      <c r="Q20" s="14" t="str">
+      <c r="Q20" s="13" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R20" s="15" t="str">
+      <c r="R20" s="14" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S20" s="13" t="str">
+      <c r="S20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T20" s="14" t="str">
+      <c r="T20" s="13" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U20" s="13" t="str">
+      <c r="U20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="29" t="s">
-        <v>83</v>
+      <c r="D21" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="45" t="str">
+        <v>77</v>
+      </c>
+      <c r="G21" s="44" t="str">
         <f>IF(EXACT(D21,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="20" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Optic chiasm</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
         <v>62045</v>
       </c>
-      <c r="L21" s="20" t="str">
+      <c r="L21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M21" s="19" t="str">
+      <c r="M21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N21" s="18" t="str">
+      <c r="N21" s="17" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P21" s="16" t="str">
+      <c r="P21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Chiasm</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="13">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="14">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="T21" s="14" t="str">
+      <c r="T21" s="13" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U21" s="13" t="str">
+      <c r="U21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="28" t="s">
+      <c r="D22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="41" t="str">
+      <c r="E22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="40" t="str">
         <f>IF(EXACT(D22,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H22" s="23" t="str">
+      <c r="H22" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="20" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left optic nerve</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
         <v>50878</v>
       </c>
-      <c r="L22" s="20" t="str">
+      <c r="L22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M22" s="19" t="str">
+      <c r="M22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N22" s="18" t="str">
+      <c r="N22" s="17" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P22" s="16" t="str">
+      <c r="P22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Nerve L</v>
       </c>
-      <c r="Q22" s="14" t="str">
+      <c r="Q22" s="13" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R22" s="15" t="str">
+      <c r="R22" s="14" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S22" s="13" t="str">
+      <c r="S22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T22" s="14" t="str">
+      <c r="T22" s="13" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U22" s="13" t="str">
+      <c r="U22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="41" t="str">
+      <c r="E23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="40" t="str">
         <f>IF(EXACT(D23,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H23" s="23" t="str">
+      <c r="H23" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="20" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right optic nerve</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
         <v>50875</v>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M23" s="19" t="str">
+      <c r="M23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N23" s="18" t="str">
+      <c r="N23" s="17" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O23" s="16" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P23" s="16" t="str">
+      <c r="P23" s="15" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Nerve R</v>
       </c>
-      <c r="Q23" s="14" t="str">
+      <c r="Q23" s="13" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R23" s="15" t="str">
+      <c r="R23" s="14" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S23" s="13" t="str">
+      <c r="S23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T23" s="14" t="str">
+      <c r="T23" s="13" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U23" s="13" t="str">
+      <c r="U23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="41" t="str">
+      <c r="D24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="40" t="str">
         <f>IF(EXACT(D24,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H24" s="23" t="str">
+      <c r="H24" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="20" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="K24" s="20" t="str">
+      <c r="K24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M24" s="19" t="str">
+      <c r="M24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N24" s="18" t="str">
+      <c r="N24" s="17" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O24" s="16" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P24" s="16" t="str">
+      <c r="P24" s="15" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
         <v>z OP PRV</v>
       </c>
-      <c r="Q24" s="14" t="str">
+      <c r="Q24" s="13" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R24" s="15" t="str">
+      <c r="R24" s="14" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S24" s="13" t="str">
+      <c r="S24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T24" s="14" t="str">
+      <c r="T24" s="13" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U24" s="13" t="str">
+      <c r="U24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="41" t="str">
+      <c r="D25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="40" t="str">
         <f>IF(EXACT(D25,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H25" s="23" t="str">
+      <c r="H25" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="20" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left eyeball</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
         <v>12515</v>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M25" s="19" t="str">
+      <c r="M25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N25" s="18" t="str">
+      <c r="N25" s="17" t="str">
         <f>VLOOKUP(D25,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O25" s="16" t="str">
         <f>VLOOKUP(D25,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P25" s="16" t="str">
+      <c r="P25" s="15" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
         <v>z Orbit L</v>
       </c>
-      <c r="Q25" s="14" t="str">
+      <c r="Q25" s="13" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R25" s="15" t="str">
+      <c r="R25" s="14" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S25" s="13" t="str">
+      <c r="S25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T25" s="14" t="str">
+      <c r="T25" s="13" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U25" s="13" t="str">
+      <c r="U25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="41" t="str">
+      <c r="D26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40" t="str">
         <f>IF(EXACT(D26,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H26" s="23" t="str">
+      <c r="H26" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="20" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right eyeball</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
         <v>12514</v>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M26" s="19" t="str">
+      <c r="M26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N26" s="18" t="str">
+      <c r="N26" s="17" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O26" s="16" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P26" s="16" t="str">
+      <c r="P26" s="15" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
         <v>z Orbit R</v>
       </c>
-      <c r="Q26" s="14" t="str">
+      <c r="Q26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R26" s="15" t="str">
+      <c r="R26" s="14" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S26" s="13" t="str">
+      <c r="S26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T26" s="14" t="str">
+      <c r="T26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U26" s="13" t="str">
+      <c r="U26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="41" t="str">
+      <c r="D27" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="40" t="str">
         <f>IF(EXACT(D27,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H27" s="23" t="str">
+      <c r="H27" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="20" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K27" s="20" t="str">
+      <c r="K27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L27" s="20" t="str">
+      <c r="L27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M27" s="19" t="str">
+      <c r="M27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N27" s="18" t="str">
+      <c r="N27" s="17" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O27" s="16" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P27" s="16" t="str">
+      <c r="P27" s="15" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q27" s="14" t="str">
+      <c r="Q27" s="13" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R27" s="15" t="str">
+      <c r="R27" s="14" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S27" s="13" t="str">
+      <c r="S27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T27" s="14" t="str">
+      <c r="T27" s="13" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U27" s="13" t="str">
+      <c r="U27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="41" t="str">
+      <c r="D28" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="40" t="str">
         <f>IF(EXACT(D28,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H28" s="23" t="str">
+      <c r="H28" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="20" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K28" s="20" t="str">
+      <c r="K28" s="19" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L28" s="20" t="str">
+      <c r="L28" s="19" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M28" s="19" t="str">
+      <c r="M28" s="18" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N28" s="18" t="str">
+      <c r="N28" s="17" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O28" s="17" t="str">
+      <c r="O28" s="16" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P28" s="16" t="str">
+      <c r="P28" s="15" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q28" s="14" t="str">
+      <c r="Q28" s="13" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R28" s="15" t="str">
+      <c r="R28" s="14" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S28" s="13" t="str">
+      <c r="S28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T28" s="14" t="str">
+      <c r="T28" s="13" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U28" s="13" t="str">
+      <c r="U28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="29" t="s">
-        <v>74</v>
+      <c r="D29" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="45" t="str">
+        <v>69</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="44" t="str">
         <f>IF(EXACT(D29,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H29" s="24" t="str">
+      <c r="H29" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="20" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K29" s="20" t="str">
+      <c r="K29" s="19" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L29" s="20" t="str">
+      <c r="L29" s="19" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M29" s="19" t="str">
+      <c r="M29" s="18" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N29" s="18" t="str">
+      <c r="N29" s="17" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O29" s="17" t="str">
+      <c r="O29" s="16" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P29" s="16" t="str">
+      <c r="P29" s="15" t="str">
         <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV eval</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="13">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="14">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="12">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>5</v>
       </c>
-      <c r="T29" s="14" t="str">
+      <c r="T29" s="13" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U29" s="13" t="str">
+      <c r="U29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="29" t="s">
-        <v>71</v>
+      <c r="D30" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="45" t="str">
+        <v>66</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="44" t="str">
         <f>IF(EXACT(D30,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H30" s="24" t="str">
+      <c r="H30" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="20" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Intermediate Risk</v>
       </c>
-      <c r="K30" s="20" t="str">
+      <c r="K30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTV_Intermediate</v>
       </c>
-      <c r="L30" s="20" t="str">
+      <c r="L30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M30" s="19" t="str">
+      <c r="M30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N30" s="18" t="str">
+      <c r="N30" s="17" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O30" s="17" t="str">
+      <c r="O30" s="16" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P30" s="16" t="str">
+      <c r="P30" s="15" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV int</v>
       </c>
-      <c r="Q30" s="14" t="str">
+      <c r="Q30" s="13" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R30" s="15" t="str">
+      <c r="R30" s="14" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S30" s="13" t="str">
+      <c r="S30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T30" s="14" t="str">
+      <c r="T30" s="13" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U30" s="13" t="str">
+      <c r="U30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="29" t="s">
-        <v>68</v>
+      <c r="D31" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="45" t="str">
+        <v>63</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="44" t="str">
         <f>IF(EXACT(D31,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H31" s="24" t="str">
+      <c r="H31" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" s="20" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K31" s="20" t="str">
+      <c r="K31" s="19" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L31" s="20" t="str">
+      <c r="L31" s="19" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M31" s="19" t="str">
+      <c r="M31" s="18" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N31" s="18" t="str">
+      <c r="N31" s="17" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O31" s="17" t="str">
+      <c r="O31" s="16" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P31" s="16" t="str">
+      <c r="P31" s="15" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV opt</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q31" s="13">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="14">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="12">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="T31" s="14" t="str">
+      <c r="T31" s="13" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U31" s="13" t="str">
+      <c r="U31" s="12" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="29" t="s">
-        <v>65</v>
+      <c r="D32" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="45" t="str">
+        <v>60</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="44" t="str">
         <f>IF(EXACT(D32,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H32" s="24" t="str">
+      <c r="H32" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="J32" s="20" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="K32" s="20" t="str">
+      <c r="K32" s="19" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="L32" s="20" t="str">
+      <c r="L32" s="19" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M32" s="19" t="str">
+      <c r="M32" s="18" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N32" s="18" t="str">
+      <c r="N32" s="17" t="str">
         <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O32" s="17" t="str">
+      <c r="O32" s="16" t="str">
         <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P32" s="16" t="str">
+      <c r="P32" s="15" t="str">
         <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
         <v>z Ring</v>
       </c>
-      <c r="Q32" s="14" t="str">
+      <c r="Q32" s="13" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R32" s="15" t="str">
+      <c r="R32" s="14" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S32" s="13" t="str">
+      <c r="S32" s="12" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T32" s="14" t="str">
+      <c r="T32" s="13" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U32" s="13" t="str">
+      <c r="U32" s="12" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D33" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="41" t="str">
+      <c r="D33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="40" t="str">
         <f>IF(EXACT(D33,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H33" s="23" t="str">
+      <c r="H33" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="21" t="str">
+      <c r="J33" s="20" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Spinal cord</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
         <v>7647</v>
       </c>
-      <c r="L33" s="20" t="str">
+      <c r="L33" s="19" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M33" s="19" t="str">
+      <c r="M33" s="18" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N33" s="18" t="str">
+      <c r="N33" s="17" t="str">
         <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O33" s="17" t="str">
+      <c r="O33" s="16" t="str">
         <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P33" s="16" t="str">
+      <c r="P33" s="15" t="str">
         <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
         <v>z Spinal Canal</v>
       </c>
-      <c r="Q33" s="14" t="str">
+      <c r="Q33" s="13" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R33" s="15" t="str">
+      <c r="R33" s="14" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S33" s="13" t="str">
+      <c r="S33" s="12" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="13">
         <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>20</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="12">
         <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="40" t="str">
+      <c r="D34" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="39" t="str">
         <f>IF(EXACT(D34,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H34" s="22" t="str">
+      <c r="H34" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="21" t="str">
+      <c r="J34" s="20" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="K34" s="20" t="str">
+      <c r="K34" s="19" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="L34" s="20" t="str">
+      <c r="L34" s="19" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M34" s="19" t="str">
+      <c r="M34" s="18" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N34" s="18" t="str">
+      <c r="N34" s="17" t="str">
         <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O34" s="17" t="str">
+      <c r="O34" s="16" t="str">
         <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P34" s="16" t="str">
+      <c r="P34" s="15" t="str">
         <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
         <v>zSpinalCanal PRV</v>
       </c>
-      <c r="Q34" s="14" t="str">
+      <c r="Q34" s="13" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R34" s="15" t="str">
+      <c r="R34" s="14" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S34" s="13" t="str">
+      <c r="S34" s="12" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T34" s="14" t="str">
+      <c r="T34" s="13" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U34" s="13" t="str">
+      <c r="U34" s="12" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D35" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="28" t="s">
+      <c r="D35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="41" t="str">
+      <c r="F35" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="40" t="str">
         <f>IF(EXACT(D35,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H35" s="23" t="str">
+      <c r="H35" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="21" t="str">
+      <c r="J35" s="20" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L35" s="20" t="str">
+      <c r="L35" s="19" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N35" s="18" t="str">
+      <c r="N35" s="17" t="str">
         <f>VLOOKUP(D35,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O35" s="17" t="str">
+      <c r="O35" s="16" t="str">
         <f>VLOOKUP(D35,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P35" s="16" t="str">
+      <c r="P35" s="15" t="str">
         <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q35" s="14" t="str">
+      <c r="Q35" s="13" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R35" s="15" t="str">
+      <c r="R35" s="14" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S35" s="13" t="str">
+      <c r="S35" s="12" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T35" s="14" t="str">
+      <c r="T35" s="13" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U35" s="13" t="str">
+      <c r="U35" s="12" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D36" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="41" t="str">
+      <c r="D36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="40" t="str">
         <f>IF(EXACT(D36,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H36" s="23" t="str">
+      <c r="H36" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="21" t="str">
+      <c r="J36" s="20" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L36" s="20" t="str">
+      <c r="L36" s="19" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="18">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N36" s="18" t="str">
+      <c r="N36" s="17" t="str">
         <f>VLOOKUP(D36,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O36" s="17" t="str">
+      <c r="O36" s="16" t="str">
         <f>VLOOKUP(D36,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P36" s="16" t="str">
+      <c r="P36" s="15" t="str">
         <f>VLOOKUP(D36,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q36" s="14" t="str">
+      <c r="Q36" s="13" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R36" s="15" t="str">
+      <c r="R36" s="14" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S36" s="13" t="str">
+      <c r="S36" s="12" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T36" s="14" t="str">
+      <c r="T36" s="13" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U36" s="13" t="str">
+      <c r="U36" s="12" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="41" t="str">
+      <c r="D37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="40" t="str">
         <f>IF(EXACT(D37,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H37" s="23" t="str">
+      <c r="H37" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5832,7 +4521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
@@ -5870,115 +4559,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="J1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="52" t="s">
+      <c r="A1" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="52" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="53"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="51"/>
+      <c r="P1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>32</v>
+      <c r="S2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>186</v>
+      <c r="A3" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="str">
         <f>IF(EXACT(D3,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -5988,139 +4677,139 @@
         <f t="shared" ref="H3:H18" si="0">IF(EXACT(D3,"DPV"),"ICD-10","")</f>
         <v/>
       </c>
-      <c r="J3" s="21" t="str">
+      <c r="J3" s="20" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Body</v>
       </c>
-      <c r="K3" s="20" t="str">
+      <c r="K3" s="19" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
         <v>BODY</v>
       </c>
-      <c r="L3" s="20" t="str">
+      <c r="L3" s="19" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M3" s="19" t="str">
+      <c r="M3" s="18" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N3" s="18" t="str">
+      <c r="N3" s="17" t="str">
         <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Special</v>
       </c>
-      <c r="O3" s="17" t="str">
+      <c r="O3" s="16" t="str">
         <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
         <v>BODY</v>
       </c>
-      <c r="P3" s="16" t="str">
+      <c r="P3" s="15" t="str">
         <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
         <v>z Body</v>
       </c>
-      <c r="Q3" s="14" t="str">
+      <c r="Q3" s="13" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R3" s="15" t="str">
+      <c r="R3" s="14" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S3" s="13" t="str">
+      <c r="S3" s="12" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>-350</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="12">
         <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>-50</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>188</v>
+      <c r="A4" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ICD-10</v>
       </c>
-      <c r="J4" s="21" t="str">
+      <c r="J4" s="20" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="K4" s="20" t="str">
+      <c r="K4" s="19" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L4" s="19" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M4" s="19" t="str">
+      <c r="M4" s="18" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N4" s="18" t="str">
+      <c r="N4" s="17" t="str">
         <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Special</v>
       </c>
-      <c r="O4" s="17" t="str">
+      <c r="O4" s="16" t="str">
         <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P4" s="16" t="str">
+      <c r="P4" s="15" t="str">
         <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
         <v>z DPV</v>
       </c>
-      <c r="Q4" s="14" t="str">
+      <c r="Q4" s="13" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R4" s="15" t="str">
+      <c r="R4" s="14" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S4" s="13" t="str">
+      <c r="S4" s="12" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T4" s="14" t="str">
+      <c r="T4" s="13" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U4" s="13" t="str">
+      <c r="U4" s="12" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>25</v>
+      <c r="A5" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>IF(EXACT(D5,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6130,70 +4819,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="21" t="str">
+      <c r="J5" s="20" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K5" s="20" t="str">
+      <c r="K5" s="19" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L5" s="20" t="str">
+      <c r="L5" s="19" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="18" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N5" s="18" t="str">
+      <c r="N5" s="17" t="str">
         <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O5" s="17" t="str">
+      <c r="O5" s="16" t="str">
         <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P5" s="16" t="str">
+      <c r="P5" s="15" t="str">
         <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="13" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R5" s="15" t="str">
+      <c r="R5" s="14" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S5" s="13" t="str">
+      <c r="S5" s="12" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T5" s="14" t="str">
+      <c r="T5" s="13" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U5" s="13" t="str">
+      <c r="U5" s="12" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>181</v>
+      <c r="A6" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>IF(EXACT(D6,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6203,67 +4892,67 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="20" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K6" s="20" t="str">
+      <c r="K6" s="19" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L6" s="20" t="str">
+      <c r="L6" s="19" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="18" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N6" s="18" t="str">
+      <c r="N6" s="17" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="O6" s="16" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P6" s="16" t="str">
+      <c r="P6" s="15" t="str">
         <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="13" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R6" s="15" t="str">
+      <c r="R6" s="14" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="12" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="13" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="12" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>21</v>
+      <c r="A7" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>IF(EXACT(D7,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6273,70 +4962,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
+      <c r="J7" s="20" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" s="19" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M7" s="19" t="str">
+      <c r="M7" s="18" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N7" s="18" t="str">
+      <c r="N7" s="17" t="str">
         <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="16" t="str">
         <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P7" s="16" t="str">
+      <c r="P7" s="15" t="str">
         <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q7" s="13" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R7" s="15" t="str">
+      <c r="R7" s="14" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="12" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T7" s="14" t="str">
+      <c r="T7" s="13" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U7" s="13" t="str">
+      <c r="U7" s="12" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>18</v>
+      <c r="A8" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>IF(EXACT(D8,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6346,70 +5035,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="20" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" s="19" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M8" s="19" t="str">
+      <c r="M8" s="18" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N8" s="18" t="str">
+      <c r="N8" s="17" t="str">
         <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="16" t="str">
         <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="15" t="str">
         <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="13" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R8" s="15" t="str">
+      <c r="R8" s="14" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S8" s="13" t="str">
+      <c r="S8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T8" s="14" t="str">
+      <c r="T8" s="13" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U8" s="13" t="str">
+      <c r="U8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>187</v>
+      <c r="A9" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>IF(EXACT(D9,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6419,70 +5108,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" s="19" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="18" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N9" s="18" t="str">
+      <c r="N9" s="17" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="16" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="15" t="str">
         <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="13" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R9" s="15" t="str">
+      <c r="R9" s="14" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="S9" s="12" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T9" s="14" t="str">
+      <c r="T9" s="13" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U9" s="13" t="str">
+      <c r="U9" s="12" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>176</v>
+      <c r="A10" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>IF(EXACT(D10,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6492,70 +5181,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="J10" s="20" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="K10" s="20" t="str">
+      <c r="K10" s="19" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="L10" s="20" t="str">
+      <c r="L10" s="19" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M10" s="19" t="str">
+      <c r="M10" s="18" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N10" s="18" t="str">
+      <c r="N10" s="17" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="16" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="15" t="str">
         <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="Q10" s="14" t="str">
+      <c r="Q10" s="13" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R10" s="15" t="str">
+      <c r="R10" s="14" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="12" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T10" s="13" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="12" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>189</v>
+      <c r="A11" s="48" t="s">
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IF(EXACT(D11,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6565,70 +5254,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="20" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
         <v>CTV Primary</v>
       </c>
-      <c r="K11" s="20" t="str">
+      <c r="K11" s="19" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
         <v>CTVp</v>
       </c>
-      <c r="L11" s="20" t="str">
+      <c r="L11" s="19" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="18" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N11" s="18" t="str">
+      <c r="N11" s="17" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="16" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="15" t="str">
         <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
         <v>z CTV</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="13" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R11" s="15" t="str">
+      <c r="R11" s="14" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S11" s="13" t="str">
+      <c r="S11" s="12" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T11" s="14" t="str">
+      <c r="T11" s="13" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U11" s="13" t="str">
+      <c r="U11" s="12" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>178</v>
+      <c r="A12" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>IF(EXACT(D12,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6638,70 +5327,70 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="20" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K12" s="20" t="str">
+      <c r="K12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L12" s="20" t="str">
+      <c r="L12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M12" s="19" t="str">
+      <c r="M12" s="18" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N12" s="18" t="str">
+      <c r="N12" s="17" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="16" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="15" t="str">
         <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q12" s="14" t="str">
+      <c r="Q12" s="13" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R12" s="15" t="str">
+      <c r="R12" s="14" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="S12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T12" s="14" t="str">
+      <c r="T12" s="13" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U12" s="13" t="str">
+      <c r="U12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>10</v>
+      <c r="A13" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IF(EXACT(D13,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6711,64 +5400,64 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="20" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K13" s="20" t="str">
+      <c r="K13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="18" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N13" s="18" t="str">
+      <c r="N13" s="17" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="16" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P13" s="16" t="str">
+      <c r="P13" s="15" t="str">
         <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q13" s="14" t="str">
+      <c r="Q13" s="13" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R13" s="15" t="str">
+      <c r="R13" s="14" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S13" s="13" t="str">
+      <c r="S13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T13" s="14" t="str">
+      <c r="T13" s="13" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U13" s="13" t="str">
+      <c r="U13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>IF(EXACT(D14,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6778,64 +5467,64 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="20" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K14" s="20" t="str">
+      <c r="K14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L14" s="20" t="str">
+      <c r="L14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N14" s="18" t="str">
+      <c r="N14" s="17" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="16" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="15" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q14" s="14" t="str">
+      <c r="Q14" s="13" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R14" s="15" t="str">
+      <c r="R14" s="14" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="13" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U14" s="13" t="str">
+      <c r="U14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IF(EXACT(D15,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6845,64 +5534,64 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="20" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K15" s="20" t="str">
+      <c r="K15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M15" s="19" t="str">
+      <c r="M15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N15" s="18" t="str">
+      <c r="N15" s="17" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="16" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="15" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q15" s="14" t="str">
+      <c r="Q15" s="13" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R15" s="15" t="str">
+      <c r="R15" s="14" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S15" s="13" t="str">
+      <c r="S15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T15" s="14" t="str">
+      <c r="T15" s="13" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U15" s="13" t="str">
+      <c r="U15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>IF(EXACT(D16,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6912,64 +5601,64 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="20" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="K16" s="20" t="str">
+      <c r="K16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M16" s="19" t="str">
+      <c r="M16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N16" s="18" t="str">
+      <c r="N16" s="17" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="16" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P16" s="16" t="str">
+      <c r="P16" s="15" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q16" s="14" t="str">
+      <c r="Q16" s="13" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R16" s="15" t="str">
+      <c r="R16" s="14" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T16" s="14" t="str">
+      <c r="T16" s="13" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U16" s="13" t="str">
+      <c r="U16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>IF(EXACT(D17,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -6979,64 +5668,64 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="20" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV High Risk</v>
       </c>
-      <c r="K17" s="20" t="str">
+      <c r="K17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTV_High</v>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N17" s="18" t="str">
+      <c r="N17" s="17" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="16" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="P17" s="16" t="str">
+      <c r="P17" s="15" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="Q17" s="14" t="str">
+      <c r="Q17" s="13" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R17" s="15" t="str">
+      <c r="R17" s="14" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S17" s="13" t="str">
+      <c r="S17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T17" s="14" t="str">
+      <c r="T17" s="13" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U17" s="13" t="str">
+      <c r="U17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>IF(EXACT(D18,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7046,123 +5735,123 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="20" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="K18" s="20" t="str">
+      <c r="K18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="L18" s="20" t="str">
+      <c r="L18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N18" s="18" t="str">
+      <c r="N18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="P18" s="16" t="str">
+      <c r="P18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
         <v>z Irradiated Vol</v>
       </c>
-      <c r="Q18" s="14" t="str">
+      <c r="Q18" s="13" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R18" s="15" t="str">
+      <c r="R18" s="14" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S18" s="13" t="str">
+      <c r="S18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T18" s="14" t="str">
+      <c r="T18" s="13" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U18" s="13" t="str">
+      <c r="U18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="21" t="str">
+        <v>124</v>
+      </c>
+      <c r="J19" s="20" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Skin</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
         <v>7163</v>
       </c>
-      <c r="L19" s="20" t="str">
+      <c r="L19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M19" s="19" t="str">
+      <c r="M19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N19" s="18" t="str">
+      <c r="N19" s="17" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P19" s="16" t="str">
+      <c r="P19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
         <v>z Skin</v>
       </c>
-      <c r="Q19" s="14" t="str">
+      <c r="Q19" s="13" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R19" s="15" t="str">
+      <c r="R19" s="14" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S19" s="13" t="str">
+      <c r="S19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T19" s="14" t="str">
+      <c r="T19" s="13" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U19" s="13" t="str">
+      <c r="U19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="str">
         <f>IF(EXACT(D20,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7172,64 +5861,64 @@
         <f t="shared" ref="H20:H39" si="1">IF(EXACT(D20,"DPV"),"ICD-10","")</f>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="20" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brain</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
         <v>50801</v>
       </c>
-      <c r="L20" s="20" t="str">
+      <c r="L20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M20" s="19" t="str">
+      <c r="M20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N20" s="18" t="str">
+      <c r="N20" s="17" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain</v>
       </c>
-      <c r="Q20" s="14" t="str">
+      <c r="Q20" s="13" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R20" s="15" t="str">
+      <c r="R20" s="14" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S20" s="13" t="str">
+      <c r="S20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="13">
         <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>10</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="12">
         <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>IF(EXACT(D21,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7239,64 +5928,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="20" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brainstem</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
         <v>79876</v>
       </c>
-      <c r="L21" s="20" t="str">
+      <c r="L21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M21" s="19" t="str">
+      <c r="M21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N21" s="18" t="str">
+      <c r="N21" s="17" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P21" s="16" t="str">
+      <c r="P21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain Stem</v>
       </c>
-      <c r="Q21" s="14" t="str">
+      <c r="Q21" s="13" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R21" s="15" t="str">
+      <c r="R21" s="14" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S21" s="13" t="str">
+      <c r="S21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T21" s="14" t="str">
+      <c r="T21" s="13" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U21" s="13" t="str">
+      <c r="U21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>IF(EXACT(D22,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7306,64 +5995,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="20" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="K22" s="20" t="str">
+      <c r="K22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="L22" s="20" t="str">
+      <c r="L22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M22" s="19" t="str">
+      <c r="M22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N22" s="18" t="str">
+      <c r="N22" s="17" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P22" s="16" t="str">
+      <c r="P22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
         <v>z BR STM PRV</v>
       </c>
-      <c r="Q22" s="14" t="str">
+      <c r="Q22" s="13" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R22" s="15" t="str">
+      <c r="R22" s="14" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S22" s="13" t="str">
+      <c r="S22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T22" s="14" t="str">
+      <c r="T22" s="13" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U22" s="13" t="str">
+      <c r="U22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>IF(EXACT(D23,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7373,64 +6062,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="20" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left optic nerve</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
         <v>50878</v>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M23" s="19" t="str">
+      <c r="M23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N23" s="18" t="str">
+      <c r="N23" s="17" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O23" s="16" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P23" s="16" t="str">
+      <c r="P23" s="15" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Nerve L</v>
       </c>
-      <c r="Q23" s="14" t="str">
+      <c r="Q23" s="13" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R23" s="15" t="str">
+      <c r="R23" s="14" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S23" s="13" t="str">
+      <c r="S23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T23" s="14" t="str">
+      <c r="T23" s="13" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U23" s="13" t="str">
+      <c r="U23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>IF(EXACT(D24,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7440,64 +6129,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="20" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="K24" s="20" t="str">
+      <c r="K24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M24" s="19" t="str">
+      <c r="M24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N24" s="18" t="str">
+      <c r="N24" s="17" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O24" s="16" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P24" s="16" t="str">
+      <c r="P24" s="15" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
         <v>z OP PRV</v>
       </c>
-      <c r="Q24" s="14" t="str">
+      <c r="Q24" s="13" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R24" s="15" t="str">
+      <c r="R24" s="14" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S24" s="13" t="str">
+      <c r="S24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T24" s="14" t="str">
+      <c r="T24" s="13" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U24" s="13" t="str">
+      <c r="U24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IF(EXACT(D25,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7507,64 +6196,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="20" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right optic nerve</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
         <v>50875</v>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M25" s="19" t="str">
+      <c r="M25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N25" s="18" t="str">
+      <c r="N25" s="17" t="str">
         <f>VLOOKUP(D25,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O25" s="16" t="str">
         <f>VLOOKUP(D25,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P25" s="16" t="str">
+      <c r="P25" s="15" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Nerve R</v>
       </c>
-      <c r="Q25" s="14" t="str">
+      <c r="Q25" s="13" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R25" s="15" t="str">
+      <c r="R25" s="14" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S25" s="13" t="str">
+      <c r="S25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T25" s="14" t="str">
+      <c r="T25" s="13" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U25" s="13" t="str">
+      <c r="U25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>IF(EXACT(D26,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7574,64 +6263,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="20" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left eyeball</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
         <v>12515</v>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M26" s="19" t="str">
+      <c r="M26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N26" s="18" t="str">
+      <c r="N26" s="17" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O26" s="16" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P26" s="16" t="str">
+      <c r="P26" s="15" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
         <v>z Orbit L</v>
       </c>
-      <c r="Q26" s="14" t="str">
+      <c r="Q26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R26" s="15" t="str">
+      <c r="R26" s="14" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S26" s="13" t="str">
+      <c r="S26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T26" s="14" t="str">
+      <c r="T26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U26" s="13" t="str">
+      <c r="U26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1" t="str">
         <f>IF(EXACT(D27,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7641,64 +6330,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="20" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right eyeball</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
         <v>12514</v>
       </c>
-      <c r="L27" s="20" t="str">
+      <c r="L27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M27" s="19" t="str">
+      <c r="M27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N27" s="18" t="str">
+      <c r="N27" s="17" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O27" s="16" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P27" s="16" t="str">
+      <c r="P27" s="15" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
         <v>z Orbit R</v>
       </c>
-      <c r="Q27" s="14" t="str">
+      <c r="Q27" s="13" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R27" s="15" t="str">
+      <c r="R27" s="14" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S27" s="13" t="str">
+      <c r="S27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T27" s="14" t="str">
+      <c r="T27" s="13" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U27" s="13" t="str">
+      <c r="U27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IF(EXACT(D28,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7708,64 +6397,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="20" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left cochlea</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
         <v>60203</v>
       </c>
-      <c r="L28" s="20" t="str">
+      <c r="L28" s="19" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M28" s="19" t="str">
+      <c r="M28" s="18" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N28" s="18" t="str">
+      <c r="N28" s="17" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O28" s="17" t="str">
+      <c r="O28" s="16" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P28" s="16" t="str">
+      <c r="P28" s="15" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
         <v>z Cochlea L</v>
       </c>
-      <c r="Q28" s="14" t="str">
+      <c r="Q28" s="13" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R28" s="15" t="str">
+      <c r="R28" s="14" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S28" s="13" t="str">
+      <c r="S28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T28" s="14" t="str">
+      <c r="T28" s="13" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U28" s="13" t="str">
+      <c r="U28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G29" s="1" t="str">
         <f>IF(EXACT(D29,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7775,64 +6464,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="20" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right cochlea</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
         <v>60202</v>
       </c>
-      <c r="L29" s="20" t="str">
+      <c r="L29" s="19" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M29" s="19" t="str">
+      <c r="M29" s="18" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N29" s="18" t="str">
+      <c r="N29" s="17" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O29" s="17" t="str">
+      <c r="O29" s="16" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P29" s="16" t="str">
+      <c r="P29" s="15" t="str">
         <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
         <v>z Cochlea R</v>
       </c>
-      <c r="Q29" s="14" t="str">
+      <c r="Q29" s="13" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R29" s="15" t="str">
+      <c r="R29" s="14" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S29" s="13" t="str">
+      <c r="S29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T29" s="14" t="str">
+      <c r="T29" s="13" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U29" s="13" t="str">
+      <c r="U29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>IF(EXACT(D30,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7842,64 +6531,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="20" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left lens</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
         <v>58243</v>
       </c>
-      <c r="L30" s="20" t="str">
+      <c r="L30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M30" s="19" t="str">
+      <c r="M30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N30" s="18" t="str">
+      <c r="N30" s="17" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O30" s="17" t="str">
+      <c r="O30" s="16" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P30" s="16" t="str">
+      <c r="P30" s="15" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
         <v>z Lens L</v>
       </c>
-      <c r="Q30" s="14" t="str">
+      <c r="Q30" s="13" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R30" s="15" t="str">
+      <c r="R30" s="14" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S30" s="13" t="str">
+      <c r="S30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T30" s="14" t="str">
+      <c r="T30" s="13" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U30" s="13" t="str">
+      <c r="U30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(EXACT(D31,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7909,64 +6598,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" s="20" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right lens</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
         <v>58242</v>
       </c>
-      <c r="L31" s="20" t="str">
+      <c r="L31" s="19" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M31" s="19" t="str">
+      <c r="M31" s="18" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N31" s="18" t="str">
+      <c r="N31" s="17" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O31" s="17" t="str">
+      <c r="O31" s="16" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P31" s="16" t="str">
+      <c r="P31" s="15" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
         <v>z Lens R</v>
       </c>
-      <c r="Q31" s="14" t="str">
+      <c r="Q31" s="13" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R31" s="15" t="str">
+      <c r="R31" s="14" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S31" s="13" t="str">
+      <c r="S31" s="12" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T31" s="14" t="str">
+      <c r="T31" s="13" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U31" s="13" t="str">
+      <c r="U31" s="12" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IF(EXACT(D32,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -7976,64 +6665,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="J32" s="20" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Optic chiasm</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
         <v>62045</v>
       </c>
-      <c r="L32" s="20" t="str">
+      <c r="L32" s="19" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M32" s="19" t="str">
+      <c r="M32" s="18" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N32" s="18" t="str">
+      <c r="N32" s="17" t="str">
         <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O32" s="17" t="str">
+      <c r="O32" s="16" t="str">
         <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P32" s="16" t="str">
+      <c r="P32" s="15" t="str">
         <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
         <v>z Optic Chiasm</v>
       </c>
-      <c r="Q32" s="14" t="str">
+      <c r="Q32" s="13" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R32" s="15" t="str">
+      <c r="R32" s="14" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S32" s="13" t="str">
+      <c r="S32" s="12" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T32" s="14" t="str">
+      <c r="T32" s="13" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U32" s="13" t="str">
+      <c r="U32" s="12" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>IF(EXACT(D33,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8043,64 +6732,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J33" s="21" t="str">
+      <c r="J33" s="20" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L33" s="20" t="str">
+      <c r="L33" s="19" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N33" s="18" t="str">
+      <c r="N33" s="17" t="str">
         <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O33" s="17" t="str">
+      <c r="O33" s="16" t="str">
         <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P33" s="16" t="str">
+      <c r="P33" s="15" t="str">
         <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q33" s="14" t="str">
+      <c r="Q33" s="13" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R33" s="15" t="str">
+      <c r="R33" s="14" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S33" s="13" t="str">
+      <c r="S33" s="12" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T33" s="14" t="str">
+      <c r="T33" s="13" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U33" s="13" t="str">
+      <c r="U33" s="12" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>IF(EXACT(D34,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8110,64 +6799,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J34" s="21" t="str">
+      <c r="J34" s="20" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L34" s="20" t="str">
+      <c r="L34" s="19" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="18">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N34" s="18" t="str">
+      <c r="N34" s="17" t="str">
         <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O34" s="17" t="str">
+      <c r="O34" s="16" t="str">
         <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P34" s="16" t="str">
+      <c r="P34" s="15" t="str">
         <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q34" s="14" t="str">
+      <c r="Q34" s="13" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R34" s="15" t="str">
+      <c r="R34" s="14" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S34" s="13" t="str">
+      <c r="S34" s="12" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T34" s="14" t="str">
+      <c r="T34" s="13" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U34" s="13" t="str">
+      <c r="U34" s="12" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1" t="str">
         <f>IF(EXACT(D35,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8177,64 +6866,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J35" s="21" t="str">
+      <c r="J35" s="20" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L35" s="20" t="str">
+      <c r="L35" s="19" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N35" s="18" t="str">
+      <c r="N35" s="17" t="str">
         <f>VLOOKUP(D35,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O35" s="17" t="str">
+      <c r="O35" s="16" t="str">
         <f>VLOOKUP(D35,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P35" s="16" t="str">
+      <c r="P35" s="15" t="str">
         <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q35" s="14" t="str">
+      <c r="Q35" s="13" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R35" s="15" t="str">
+      <c r="R35" s="14" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S35" s="13" t="str">
+      <c r="S35" s="12" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T35" s="14" t="str">
+      <c r="T35" s="13" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U35" s="13" t="str">
+      <c r="U35" s="12" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IF(EXACT(D36,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8244,64 +6933,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="21" t="str">
+      <c r="J36" s="20" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brain sub PTVs</v>
       </c>
-      <c r="K36" s="20" t="str">
+      <c r="K36" s="19" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],4,FALSE)</f>
         <v>brain-ptvs</v>
       </c>
-      <c r="L36" s="20" t="str">
+      <c r="L36" s="19" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M36" s="19" t="str">
+      <c r="M36" s="18" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N36" s="18" t="str">
+      <c r="N36" s="17" t="str">
         <f>VLOOKUP(D36,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O36" s="17" t="str">
+      <c r="O36" s="16" t="str">
         <f>VLOOKUP(D36,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P36" s="16" t="str">
+      <c r="P36" s="15" t="str">
         <f>VLOOKUP(D36,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain opt</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="13">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R36" s="15">
+      <c r="R36" s="14">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="12">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="T36" s="14" t="str">
+      <c r="T36" s="13" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U36" s="13" t="str">
+      <c r="U36" s="12" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1" t="str">
         <f>IF(EXACT(D37,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8311,64 +7000,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J37" s="21" t="str">
+      <c r="J37" s="20" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Brainstem</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],4,FALSE)</f>
         <v>79876</v>
       </c>
-      <c r="L37" s="20" t="str">
+      <c r="L37" s="19" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M37" s="19" t="str">
+      <c r="M37" s="18" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N37" s="18" t="str">
+      <c r="N37" s="17" t="str">
         <f>VLOOKUP(D37,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O37" s="17" t="str">
+      <c r="O37" s="16" t="str">
         <f>VLOOKUP(D37,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P37" s="16" t="str">
+      <c r="P37" s="15" t="str">
         <f>VLOOKUP(D37,[1]!Colors[#All],3,FALSE)</f>
         <v>z Brain Stem opt</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="13">
         <f>IFERROR(VLOOKUP(D37,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="R37" s="15">
+      <c r="R37" s="14">
         <f>IFERROR(VLOOKUP(D37,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="12">
         <f>IFERROR(VLOOKUP(D37,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="T37" s="14" t="str">
+      <c r="T37" s="13" t="str">
         <f>IFERROR(VLOOKUP(D37,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U37" s="13" t="str">
+      <c r="U37" s="12" t="str">
         <f>IFERROR(VLOOKUP(D37,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IF(EXACT(D38,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8378,64 +7067,64 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J38" s="21" t="str">
+      <c r="J38" s="20" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Spinal cord</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="19">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],4,FALSE)</f>
         <v>7647</v>
       </c>
-      <c r="L38" s="20" t="str">
+      <c r="L38" s="19" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="M38" s="19" t="str">
+      <c r="M38" s="18" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="N38" s="18" t="str">
+      <c r="N38" s="17" t="str">
         <f>VLOOKUP(D38,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O38" s="17" t="str">
+      <c r="O38" s="16" t="str">
         <f>VLOOKUP(D38,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="P38" s="16" t="str">
+      <c r="P38" s="15" t="str">
         <f>VLOOKUP(D38,[1]!Colors[#All],3,FALSE)</f>
         <v>z Spinal Canal</v>
       </c>
-      <c r="Q38" s="14" t="str">
+      <c r="Q38" s="13" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R38" s="15" t="str">
+      <c r="R38" s="14" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S38" s="13" t="str">
+      <c r="S38" s="12" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="13">
         <f>IFERROR(VLOOKUP(D38,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>20</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="12">
         <f>IFERROR(VLOOKUP(D38,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF(EXACT(D39,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
@@ -8445,182 +7134,182 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J39" s="21" t="str">
+      <c r="J39" s="20" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="K39" s="20" t="str">
+      <c r="K39" s="19" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PRV</v>
       </c>
-      <c r="L39" s="20" t="str">
+      <c r="L39" s="19" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M39" s="19" t="str">
+      <c r="M39" s="18" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N39" s="18" t="str">
+      <c r="N39" s="17" t="str">
         <f>VLOOKUP(D39,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O39" s="17" t="str">
+      <c r="O39" s="16" t="str">
         <f>VLOOKUP(D39,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Avoidance</v>
       </c>
-      <c r="P39" s="16" t="str">
+      <c r="P39" s="15" t="str">
         <f>VLOOKUP(D39,[1]!Colors[#All],3,FALSE)</f>
         <v>zSpinalCanal PRV</v>
       </c>
-      <c r="Q39" s="14" t="str">
+      <c r="Q39" s="13" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R39" s="15" t="str">
+      <c r="R39" s="14" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S39" s="13" t="str">
+      <c r="S39" s="12" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T39" s="14" t="str">
+      <c r="T39" s="13" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U39" s="13" t="str">
+      <c r="U39" s="12" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J40" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="J40" s="20" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Control Region</v>
       </c>
-      <c r="K40" s="20" t="str">
+      <c r="K40" s="19" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="L40" s="20" t="str">
+      <c r="L40" s="19" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M40" s="19" t="str">
+      <c r="M40" s="18" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N40" s="18" t="str">
+      <c r="N40" s="17" t="str">
         <f>VLOOKUP(D40,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O40" s="17" t="str">
+      <c r="O40" s="16" t="str">
         <f>VLOOKUP(D40,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="P40" s="16" t="str">
+      <c r="P40" s="15" t="str">
         <f>VLOOKUP(D40,[1]!Colors[#All],3,FALSE)</f>
         <v>z Avoid a</v>
       </c>
-      <c r="Q40" s="14" t="str">
+      <c r="Q40" s="13" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R40" s="15" t="str">
+      <c r="R40" s="14" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S40" s="13" t="str">
+      <c r="S40" s="12" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T40" s="14" t="str">
+      <c r="T40" s="13" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U40" s="13" t="str">
+      <c r="U40" s="12" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J41" s="21" t="str">
+        <v>118</v>
+      </c>
+      <c r="J41" s="20" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Control Region</v>
       </c>
-      <c r="K41" s="20" t="str">
+      <c r="K41" s="19" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="L41" s="20" t="str">
+      <c r="L41" s="19" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="M41" s="19" t="str">
+      <c r="M41" s="18" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="N41" s="18" t="str">
+      <c r="N41" s="17" t="str">
         <f>VLOOKUP(D41,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="O41" s="17" t="str">
+      <c r="O41" s="16" t="str">
         <f>VLOOKUP(D41,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Control</v>
       </c>
-      <c r="P41" s="16" t="str">
+      <c r="P41" s="15" t="str">
         <f>VLOOKUP(D41,[1]!Colors[#All],3,FALSE)</f>
         <v>z Avoid b</v>
       </c>
-      <c r="Q41" s="14" t="str">
+      <c r="Q41" s="13" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R41" s="15" t="str">
+      <c r="R41" s="14" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S41" s="13" t="str">
+      <c r="S41" s="12" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T41" s="14" t="str">
+      <c r="T41" s="13" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U41" s="13" t="str">
+      <c r="U41" s="12" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J42" s="10" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],3,FALSE)</f>
@@ -8689,7 +7378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
@@ -8725,1172 +7414,1172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="H1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="52" t="s">
+      <c r="A1" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="52" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="H1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="53"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="51"/>
+      <c r="N1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="37" t="s">
+      <c r="A2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>32</v>
+      <c r="Q2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>186</v>
+      <c r="A3" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="21" t="str">
+        <v>113</v>
+      </c>
+      <c r="H3" s="20" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Body</v>
       </c>
-      <c r="I3" s="20" t="str">
+      <c r="I3" s="19" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
         <v>BODY</v>
       </c>
-      <c r="J3" s="20" t="str">
+      <c r="J3" s="19" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K3" s="19" t="str">
+      <c r="K3" s="18" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L3" s="18" t="str">
+      <c r="L3" s="17" t="str">
         <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Special</v>
       </c>
-      <c r="M3" s="17" t="str">
+      <c r="M3" s="16" t="str">
         <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
         <v>BODY</v>
       </c>
-      <c r="N3" s="16" t="str">
+      <c r="N3" s="15" t="str">
         <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
         <v>z Body</v>
       </c>
-      <c r="O3" s="14" t="str">
+      <c r="O3" s="13" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P3" s="15" t="str">
+      <c r="P3" s="14" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q3" s="13" t="str">
+      <c r="Q3" s="12" t="str">
         <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v>-350</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v>-50</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>188</v>
+      <c r="A4" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="26"/>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="21" t="str">
+        <v>89</v>
+      </c>
+      <c r="H4" s="20" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="I4" s="20" t="str">
+      <c r="I4" s="19" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
         <v>Treated Volume</v>
       </c>
-      <c r="J4" s="20" t="str">
+      <c r="J4" s="19" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K4" s="19" t="str">
+      <c r="K4" s="18" t="str">
         <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L4" s="18" t="str">
+      <c r="L4" s="17" t="str">
         <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Special</v>
       </c>
-      <c r="M4" s="17" t="str">
+      <c r="M4" s="16" t="str">
         <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N4" s="16" t="str">
+      <c r="N4" s="15" t="str">
         <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
         <v>z DPV</v>
       </c>
-      <c r="O4" s="14" t="str">
+      <c r="O4" s="13" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P4" s="15" t="str">
+      <c r="P4" s="14" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q4" s="13" t="str">
+      <c r="Q4" s="12" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R4" s="14" t="str">
+      <c r="R4" s="13" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S4" s="13" t="str">
+      <c r="S4" s="12" t="str">
         <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>25</v>
+      <c r="A5" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="27"/>
+        <v>163</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="21" t="str">
+        <v>86</v>
+      </c>
+      <c r="H5" s="20" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="I5" s="20" t="str">
+      <c r="I5" s="19" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="J5" s="20" t="str">
+      <c r="J5" s="19" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K5" s="19" t="str">
+      <c r="K5" s="18" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="17" t="str">
         <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="M5" s="17" t="str">
+      <c r="M5" s="16" t="str">
         <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="N5" s="16" t="str">
+      <c r="N5" s="15" t="str">
         <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="13" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" s="14" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q5" s="13" t="str">
+      <c r="Q5" s="12" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R5" s="14" t="str">
+      <c r="R5" s="13" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S5" s="13" t="str">
+      <c r="S5" s="12" t="str">
         <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>181</v>
+      <c r="A6" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="21" t="str">
+        <v>86</v>
+      </c>
+      <c r="H6" s="20" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="I6" s="19" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="J6" s="20" t="str">
+      <c r="J6" s="19" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K6" s="19" t="str">
+      <c r="K6" s="18" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="17" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="M6" s="17" t="str">
+      <c r="M6" s="16" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="N6" s="16" t="str">
+      <c r="N6" s="15" t="str">
         <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="13" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P6" s="15" t="str">
+      <c r="P6" s="14" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="12" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="13" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="12" t="str">
         <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>21</v>
+      <c r="A7" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="21" t="str">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
         <v>GTV Primary</v>
       </c>
-      <c r="I7" s="20" t="str">
+      <c r="I7" s="19" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
         <v>GTVp</v>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="18" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="17" t="str">
         <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="M7" s="17" t="str">
+      <c r="M7" s="16" t="str">
         <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
         <v>GTV</v>
       </c>
-      <c r="N7" s="16" t="str">
+      <c r="N7" s="15" t="str">
         <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
         <v>z GTV</v>
       </c>
-      <c r="O7" s="14" t="str">
+      <c r="O7" s="13" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P7" s="15" t="str">
+      <c r="P7" s="14" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="13" t="str">
+      <c r="Q7" s="12" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R7" s="14" t="str">
+      <c r="R7" s="13" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="12" t="str">
         <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>18</v>
+      <c r="A8" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="21" t="str">
+        <v>94</v>
+      </c>
+      <c r="H8" s="20" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
         <v>CTV Primary</v>
       </c>
-      <c r="I8" s="20" t="str">
+      <c r="I8" s="19" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
         <v>CTVp</v>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="18" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="17" t="str">
         <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="16" t="str">
         <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="N8" s="16" t="str">
+      <c r="N8" s="15" t="str">
         <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
         <v>z CTV</v>
       </c>
-      <c r="O8" s="14" t="str">
+      <c r="O8" s="13" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="P8" s="14" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q8" s="13" t="str">
+      <c r="Q8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R8" s="14" t="str">
+      <c r="R8" s="13" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S8" s="13" t="str">
+      <c r="S8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>187</v>
+      <c r="A9" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="21" t="str">
+        <v>157</v>
+      </c>
+      <c r="H9" s="20" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
         <v>CTV Intermediate Risk</v>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
         <v>CTV_Intermediate</v>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="18" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="17" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="16" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
         <v>CTV</v>
       </c>
-      <c r="N9" s="16" t="str">
+      <c r="N9" s="15" t="str">
         <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
         <v>z CTV int</v>
       </c>
-      <c r="O9" s="14" t="str">
+      <c r="O9" s="13" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="P9" s="14" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="Q9" s="12" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R9" s="14" t="str">
+      <c r="R9" s="13" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="S9" s="12" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>176</v>
+      <c r="A10" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="21" t="str">
+        <v>71</v>
+      </c>
+      <c r="H10" s="20" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="I10" s="20" t="str">
+      <c r="I10" s="19" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="J10" s="20" t="str">
+      <c r="J10" s="19" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K10" s="19" t="str">
+      <c r="K10" s="18" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="17" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="16" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N10" s="16" t="str">
+      <c r="N10" s="15" t="str">
         <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="O10" s="14" t="str">
+      <c r="O10" s="13" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="P10" s="14" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="12" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R10" s="14" t="str">
+      <c r="R10" s="13" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="12" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>189</v>
+      <c r="A11" s="48" t="s">
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="21" t="str">
+        <v>71</v>
+      </c>
+      <c r="H11" s="20" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="I11" s="20" t="str">
+      <c r="I11" s="19" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="J11" s="20" t="str">
+      <c r="J11" s="19" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K11" s="19" t="str">
+      <c r="K11" s="18" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="17" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="16" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N11" s="16" t="str">
+      <c r="N11" s="15" t="str">
         <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="O11" s="14" t="str">
+      <c r="O11" s="13" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P11" s="15" t="str">
+      <c r="P11" s="14" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="13" t="str">
+      <c r="Q11" s="12" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R11" s="14" t="str">
+      <c r="R11" s="13" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S11" s="13" t="str">
+      <c r="S11" s="12" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>178</v>
+      <c r="A12" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="21" t="str">
+        <v>71</v>
+      </c>
+      <c r="H12" s="20" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="I12" s="20" t="str">
+      <c r="I12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="J12" s="20" t="str">
+      <c r="J12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K12" s="19" t="str">
+      <c r="K12" s="18" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="17" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M12" s="16" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="15" t="str">
         <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="O12" s="14" t="str">
+      <c r="O12" s="13" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="P12" s="14" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q12" s="13" t="str">
+      <c r="Q12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R12" s="14" t="str">
+      <c r="R12" s="13" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="S12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>10</v>
+      <c r="A13" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="21" t="str">
+        <v>153</v>
+      </c>
+      <c r="H13" s="20" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Primary</v>
       </c>
-      <c r="I13" s="20" t="str">
+      <c r="I13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTVp</v>
       </c>
-      <c r="J13" s="20" t="str">
+      <c r="J13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="K13" s="19" t="str">
+      <c r="K13" s="18" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="17" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="16" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N13" s="16" t="str">
+      <c r="N13" s="15" t="str">
         <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
         <v>z PTV</v>
       </c>
-      <c r="O13" s="14" t="str">
+      <c r="O13" s="13" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" s="14" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="13" t="str">
+      <c r="Q13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R13" s="14" t="str">
+      <c r="R13" s="13" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S13" s="13" t="str">
+      <c r="S13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="str">
+        <v>20</v>
+      </c>
+      <c r="H14" s="20" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left lens</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
         <v>58243</v>
       </c>
-      <c r="J14" s="20" t="str">
+      <c r="J14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="K14" s="19" t="str">
+      <c r="K14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="17" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="16" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N14" s="16" t="str">
+      <c r="N14" s="15" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
         <v>z Lens L</v>
       </c>
-      <c r="O14" s="14" t="str">
+      <c r="O14" s="13" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="str">
+      <c r="P14" s="14" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="13" t="str">
+      <c r="Q14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R14" s="14" t="str">
+      <c r="R14" s="13" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="21" t="str">
+        <v>17</v>
+      </c>
+      <c r="H15" s="20" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right lens</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
         <v>58242</v>
       </c>
-      <c r="J15" s="20" t="str">
+      <c r="J15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="K15" s="19" t="str">
+      <c r="K15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="17" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="M15" s="17" t="str">
+      <c r="M15" s="16" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="15" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
         <v>z Lens R</v>
       </c>
-      <c r="O15" s="14" t="str">
+      <c r="O15" s="13" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="str">
+      <c r="P15" s="14" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="13" t="str">
+      <c r="Q15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R15" s="14" t="str">
+      <c r="R15" s="13" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S15" s="13" t="str">
+      <c r="S15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="21" t="str">
+        <v>2</v>
+      </c>
+      <c r="H16" s="20" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Left eyeball</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
         <v>12515</v>
       </c>
-      <c r="J16" s="20" t="str">
+      <c r="J16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="K16" s="19" t="str">
+      <c r="K16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="17" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="M16" s="17" t="str">
+      <c r="M16" s="16" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="15" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
         <v>z Orbit L</v>
       </c>
-      <c r="O16" s="14" t="str">
+      <c r="O16" s="13" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="str">
+      <c r="P16" s="14" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="13" t="str">
+      <c r="Q16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R16" s="14" t="str">
+      <c r="R16" s="13" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Right eyeball</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
         <v>12514</v>
       </c>
-      <c r="J17" s="20" t="str">
+      <c r="J17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="K17" s="19" t="str">
+      <c r="K17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="17" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="M17" s="17" t="str">
+      <c r="M17" s="16" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="15" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
         <v>z Orbit R</v>
       </c>
-      <c r="O17" s="14" t="str">
+      <c r="O17" s="13" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="str">
+      <c r="P17" s="14" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="13" t="str">
+      <c r="Q17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R17" s="14" t="str">
+      <c r="R17" s="13" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S17" s="13" t="str">
+      <c r="S17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="21" t="str">
+        <v>49</v>
+      </c>
+      <c r="H18" s="20" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="J18" s="20" t="str">
+      <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="18">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="O18" s="14" t="str">
+      <c r="O18" s="13" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="str">
+      <c r="P18" s="14" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q18" s="13" t="str">
+      <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R18" s="14" t="str">
+      <c r="R18" s="13" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S18" s="13" t="str">
+      <c r="S18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="21" t="str">
+        <v>49</v>
+      </c>
+      <c r="H19" s="20" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="J19" s="20" t="str">
+      <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="17" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="M19" s="17" t="str">
+      <c r="M19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="O19" s="14" t="str">
+      <c r="O19" s="13" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="str">
+      <c r="P19" s="14" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="13" t="str">
+      <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R19" s="14" t="str">
+      <c r="R19" s="13" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S19" s="13" t="str">
+      <c r="S19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H20" s="10" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
